--- a/xlsx/Template talk-公共财政_intext.xlsx
+++ b/xlsx/Template talk-公共财政_intext.xlsx
@@ -29,7 +29,7 @@
     <t>Template talk-WikiProject Economics</t>
   </si>
   <si>
-    <t>政策_政策_貨幣政策_Template talk-公共财政</t>
+    <t>政策_政策_货币政策_Template talk-公共财政</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%96%87%E7%BB%B4%E5%9F%BA%E7%99%BE%E7%A7%91</t>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/Wikipedia_talk:%E7%B6%93%E6%BF%9F%E5%AD%B8%E5%B0%88%E9%A1%8C</t>
   </si>
   <si>
-    <t>Wikipedia talk-經濟學專題</t>
+    <t>Wikipedia talk-经济学专题</t>
   </si>
 </sst>
 </file>
